--- a/biology/Médecine/Greffe_(médecine)/Greffe_(médecine).xlsx
+++ b/biology/Médecine/Greffe_(médecine)/Greffe_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Greffe_(m%C3%A9decine)</t>
+          <t>Greffe_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, une greffe ou transplantation est une opération chirurgicale consistant à remplacer un organe malade par un organe sain, appelé « greffon » ou « transplant » et provenant d'un donneur. La différence entre transplantation et greffe est que la première est réalisée avec une anastomose chirurgicale des vaisseaux sanguins nourriciers et/ou fonctionnels, alors que la seconde est avasculaire. Font donc l'objet de transplantations les organes (généralement) : cœur, poumon, foie, reins, tandis que les greffes concernent la cornée, la moelle, etc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Greffe_(m%C3%A9decine)</t>
+          <t>Greffe_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,38 +523,40 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des greffes sont représentées dans les mythologies égyptiennes et gréco-romaines ou dans les miracles chrétiens (Côme et Damien greffant une jambe de Maure pour remplacer la jambe nécrosée d'un patient). Le premier témoignage historique d'une autotransplantation est dû à Sushruta 800 ans av. J.-C. qui décrit des greffes de peau sur les nez amputés des criminels. Au Moyen Âge, les savants pratiquent surtout la greffe végétale. Au XVIe siècle, Gaspare Tagliacozzi réalise avec succès des autogreffes de nez mais échoue dans les allogreffes. Le XVIIIe siècle voit le développement des expérimentations de greffes sur animaux qui aboutit en 1902 à la première autogreffe réussie d'un rein sur un chien par Emerich Ullmann[1].
-C’est vers 1906 que les premières greffes d’organes sur l'homme ont lieu mais elles se soldent toutes par des échecs entraînant la mort du « cobaye humain ». Mathieu Jaboulay et son interne Alexis Carrel font les toutes premières greffes de reins de porcs ou de chèvres sur des femmes mais elles échouent : les patientes atteintes d’insuffisance rénale meurent en quelques jours[2]. Ces échecs permettent de découvrir un des principaux obstacles de la greffe : le rejet. L'origine de ce dernier a été attribuée à un problème immunologique dès les années 1950[3]. Les premières tentatives pour pallier ce problème consistaient à réaliser une irradiation de l'organisme receveur, conduisant à la destruction quasi totale des cellules immuno-compétentes et permettant une acceptation prolongée du greffon[4]. Différents médicaments anti-rejets furent testés par la suite, dont les corticoïdes, la mercaptopurine en 1959[5], puis l'azathioprine en 1961[6], permettant d'effectuer des transplantations chez l'homme sans recours à l'irradiation[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Des greffes sont représentées dans les mythologies égyptiennes et gréco-romaines ou dans les miracles chrétiens (Côme et Damien greffant une jambe de Maure pour remplacer la jambe nécrosée d'un patient). Le premier témoignage historique d'une autotransplantation est dû à Sushruta 800 ans av. J.-C. qui décrit des greffes de peau sur les nez amputés des criminels. Au Moyen Âge, les savants pratiquent surtout la greffe végétale. Au XVIe siècle, Gaspare Tagliacozzi réalise avec succès des autogreffes de nez mais échoue dans les allogreffes. Le XVIIIe siècle voit le développement des expérimentations de greffes sur animaux qui aboutit en 1902 à la première autogreffe réussie d'un rein sur un chien par Emerich Ullmann.
+C’est vers 1906 que les premières greffes d’organes sur l'homme ont lieu mais elles se soldent toutes par des échecs entraînant la mort du « cobaye humain ». Mathieu Jaboulay et son interne Alexis Carrel font les toutes premières greffes de reins de porcs ou de chèvres sur des femmes mais elles échouent : les patientes atteintes d’insuffisance rénale meurent en quelques jours. Ces échecs permettent de découvrir un des principaux obstacles de la greffe : le rejet. L'origine de ce dernier a été attribuée à un problème immunologique dès les années 1950. Les premières tentatives pour pallier ce problème consistaient à réaliser une irradiation de l'organisme receveur, conduisant à la destruction quasi totale des cellules immuno-compétentes et permettant une acceptation prolongée du greffon. Différents médicaments anti-rejets furent testés par la suite, dont les corticoïdes, la mercaptopurine en 1959, puis l'azathioprine en 1961, permettant d'effectuer des transplantations chez l'homme sans recours à l'irradiation.
 Le 7 décembre 1905 a eu lieu la première greffe de cornée avec succès, par le docteur Eduard Zirm (1863-1944). Le donneur était un jeune garçon de 11 ans devant subir une énucléation d'un œil blessé mais à la cornée intacte. D'autres tentatives avaient été décrites avant cette date mais avaient abouti à des échecs.
 La première transplantation rénale à partir d'un donneur vivant a eu lieu en 1952 sur le jeune Marius Renard par l'équipe de Louis Michon à l'Hôpital Necker à Paris, les suites néphrologiques étant assurées par Jean Hamburger. Le jeune homme mourut 21 jours plus tard.
-En 1954, Vladimir Demikhov réalise une première greffe de tête sur un chien au niveau du cou[8].
-En 1954, alors que les sites de Boston et de Paris (équipe de René Küss et Jean Hamburger) sont en concurrence[2], l'Américain Joseph Murray réalise la première transplantation rénale réussie au monde, en la pratiquant sur des jumeaux monozygotes[9].
+En 1954, Vladimir Demikhov réalise une première greffe de tête sur un chien au niveau du cou.
+En 1954, alors que les sites de Boston et de Paris (équipe de René Küss et Jean Hamburger) sont en concurrence, l'Américain Joseph Murray réalise la première transplantation rénale réussie au monde, en la pratiquant sur des jumeaux monozygotes.
 La première transplantation de moelle osseuse a été faite en 1957 par Edward Donnall Thomas.
 La première transplantation de foie a eu lieu en 1963 par le Pr Thomas Starzl.
-La première greffe de main (en) a été tentée le 13 février 1964 à l'hôpital de Guayaquil dans la République d'Équateur[10].
+La première greffe de main (en) a été tentée le 13 février 1964 à l'hôpital de Guayaquil dans la République d'Équateur.
 La première transplantation cardiaque a eu lieu en 1967 par le professeur Christiaan Barnard en Afrique du Sud. La survie n'a été alors que de 18 jours.
 On peut citer en France le Professeur Edmond Henry qui réussit la 1re transplantation cardiaque sur Emmanuel Vitria qui vécut avec une telle transplantation de 1968 à 1987.
 La première greffe du foie en France, suivie d'une survie relativement prolongée pour l'époque, a été réalisée par Jean Paul Clot et Henri Garnier, en 1968.
 La première greffe de moelle osseuse a eu lieu en 1968.
-1979 : première greffe de trachée[11].
-En 2005, première greffe à l'aide d'un segment d'aorte[12],[13],[14].
-En 2008, une greffe de bronche souche gauche est effectuée en Espagne, le greffon étant la trachée d'un donneur préparé de telle sorte qu'il ne soit plus nécessaire d'avoir un traitement immunosuppresseur[15].
+1979 : première greffe de trachée.
+En 2005, première greffe à l'aide d'un segment d'aorte.
+En 2008, une greffe de bronche souche gauche est effectuée en Espagne, le greffon étant la trachée d'un donneur préparé de telle sorte qu'il ne soit plus nécessaire d'avoir un traitement immunosuppresseur.
 La première transplantation du poumon a eu lieu en Belgique en 1968.
-La première greffe de larynx réussie a eu lieu en 1998 par le Pr Marshall Strome (Cleveland, Ohio) sur le patient Timothy Heidler qui a ainsi recouvré l'usage de la parole[16]. Il s'agit de la première greffe d'organe non essentielle à la survie.
-La première double transplantation de mains (avec avant-bras) a eu lieu en janvier 2000 (Pr Dubernard)[17].
+La première greffe de larynx réussie a eu lieu en 1998 par le Pr Marshall Strome (Cleveland, Ohio) sur le patient Timothy Heidler qui a ainsi recouvré l'usage de la parole. Il s'agit de la première greffe d'organe non essentielle à la survie.
+La première double transplantation de mains (avec avant-bras) a eu lieu en janvier 2000 (Pr Dubernard).
 En 2003 eu lieu la première transplantation de langue à Vienne.
 La première transplantation partielle de visage a eu lieu au CHU d’Amiens par les équipes de Bernard Devauchelle et Jean-Michel Dubernard en novembre 2005 sur Isabelle Dinoire.
-En 2006, la première transplantation de pénis est effectuée à l'hôpital de Canton (Chine) par l'équipe du docteur Weilie Hu[18]. En dépit de l'absence de signes de rejet, le patient a demandé l'ablation du greffon après 14 jours.
-En 2008, le 1er août, la première transplantation de deux bras entiers a été réalisée en Allemagne à la clinique universitaire de Munich, par une équipe de 40 personnes sous la direction des professeurs Christoph Hijhnke et Edgar Biemer[19].
+En 2006, la première transplantation de pénis est effectuée à l'hôpital de Canton (Chine) par l'équipe du docteur Weilie Hu. En dépit de l'absence de signes de rejet, le patient a demandé l'ablation du greffon après 14 jours.
+En 2008, le 1er août, la première transplantation de deux bras entiers a été réalisée en Allemagne à la clinique universitaire de Munich, par une équipe de 40 personnes sous la direction des professeurs Christoph Hijhnke et Edgar Biemer.
 En 2009, le 4 et 5 avril, une greffe simultanée du visage et des mains sur un homme brûlé lors d'un accident est réalisée à l'hôpital Henri-Mondor de Créteil. Les greffes sont dirigées par le professeur Laurent Lantiéri et le docteur Jean-Paul Méningaud pour la greffe du visage, et par le docteur Christian Dumontier pour la greffe des mains.
 En 2010 a lieu la première greffe totale de visage par une équipe espagnole.
-En 2014, première greffe d'utérus à Göteborg (donneur vivant) qui a permis la naissance d'un enfant[20].
-En 2017, publication de la première transplantation de pénis[21].
-En 2021 et pour la première fois, une xénogreffe d'un rein de porc a été réalisée sur un patient humain aux États-Unis[22].
-Le 13 janvier 2021, l'Islandais Felix Gretarsson, alors âgé de 48 ans, bénéficie d’une double greffe des membres supérieurs au CHU de Lyon, une greffe bilatérale de bras (au niveau de l’épaule gauche et transhumérale proximale à droite)[23][réf. non conforme]. Sa rééducation se fait avec l'aide de la thérapie miroir[Quoi ?][24][réf. non conforme].
-En août 2023, des chercheurs de l'Hôpital Langone (en) de New York annoncent avoir réussi à faire maintenir sans rejet pendant 32 jours un rein de porc génétiquement modifié sur un patient en mort cérébrale[25].</t>
+En 2014, première greffe d'utérus à Göteborg (donneur vivant) qui a permis la naissance d'un enfant.
+En 2017, publication de la première transplantation de pénis.
+En 2021 et pour la première fois, une xénogreffe d'un rein de porc a été réalisée sur un patient humain aux États-Unis.
+Le 13 janvier 2021, l'Islandais Felix Gretarsson, alors âgé de 48 ans, bénéficie d’une double greffe des membres supérieurs au CHU de Lyon, une greffe bilatérale de bras (au niveau de l’épaule gauche et transhumérale proximale à droite)[réf. non conforme]. Sa rééducation se fait avec l'aide de la thérapie miroir[Quoi ?][réf. non conforme].
+En août 2023, des chercheurs de l'Hôpital Langone (en) de New York annoncent avoir réussi à faire maintenir sans rejet pendant 32 jours un rein de porc génétiquement modifié sur un patient en mort cérébrale.</t>
         </is>
       </c>
     </row>
@@ -552,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Greffe_(m%C3%A9decine)</t>
+          <t>Greffe_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -570,7 +584,9 @@
           <t>Types de greffes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les types de greffes peuvent être classés suivant l'origine du greffon :
 autogreffe : le greffon appartient au receveur. Il s'agit essentiellement de tissus ou de cellules ;
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Greffe_(m%C3%A9decine)</t>
+          <t>Greffe_(médecine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,26 +620,97 @@
           <t>Organes transplantés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les transplantations les plus fréquentes sont les greffes du rein. On pratique également des transplantations du foie, du cœur, des poumons, du bloc cœur/poumons, du pancréas et plus rarement de l'intestin.
 On sait également greffer des tissus : cornée, os, valves cardiaques ou vaisseaux sanguins, ligaments, tendons, épiderme, ainsi que des cellules (moelle osseuse). Il existe également des techniques expérimentales de transplantations de tissus composites (main, partie du visage).
 Certaines transplantations permettent de sauver une vie, d'autres d'éviter de lourds traitements (la transplantation du rein permet par exemple d'éviter la dialyse).
 Les indications pour une transplantation d'organe sont déterminées par la nature et la gravité de la maladie sous-jacente, ainsi que par l'état de santé général du patient :
-les différentes formes de transplantation d'organes
-la transplantation rénale : est un  traitement  privilégier pour les patients souffrant d'insuffisance rénale terminale car elle améliore considérablement la durée et la qualité de vie. cette opération est de plus en plus fréquentes de nos jours.[1]
-la transplantation hépatique:  est la seule thérapie curative pour les maladies hépatiques en phase terminale et le foie est le deuxième organe solide le plus souvent transplanté[26] ;
-la transplantation pancréatique: est une intervention chirurgicale complexe pratiquée chez les patients atteints de diabète chronique grave, souvent en association avec une transplantation rénale[27] ;
-la transplantation cardiaque: est de plus en plus pratiquée chez les patients souffrant d'insuffisance cardiaque terminale, le plus souvent liée à des cardiomyopathies ischémiques et non ischémiques[28].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organes transplantés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>les différentes formes de transplantation d'organes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>la transplantation rénale : est un  traitement  privilégier pour les patients souffrant d'insuffisance rénale terminale car elle améliore considérablement la durée et la qualité de vie. cette opération est de plus en plus fréquentes de nos jours.
+la transplantation hépatique:  est la seule thérapie curative pour les maladies hépatiques en phase terminale et le foie est le deuxième organe solide le plus souvent transplanté ;
+la transplantation pancréatique: est une intervention chirurgicale complexe pratiquée chez les patients atteints de diabète chronique grave, souvent en association avec une transplantation rénale ;
+la transplantation cardiaque: est de plus en plus pratiquée chez les patients souffrant d'insuffisance cardiaque terminale, le plus souvent liée à des cardiomyopathies ischémiques et non ischémiques.
 les indications de la transplantation cardiaque:
 L’indication principale demeure l’insuffisance cardiaque sévère et s’aggravant progressivement en dépit d’un traitement médical optimal.
-La classification NYHA est la plus utilisée pour définir l’insuffisance cardiaque avancée mais la plupart des équipes s’appuie sur les scores de risques (Heart Failure Survival Score, score de Seattle) et la classification Intermacs – particulièrement en cas de discussion d’assistance – pour codifier la sévérité de l’insuffisance cardiaque avant transplantation cardiaque ( tableau 1).[2]
+La classification NYHA est la plus utilisée pour définir l’insuffisance cardiaque avancée mais la plupart des équipes s’appuie sur les scores de risques (Heart Failure Survival Score, score de Seattle) et la classification Intermacs – particulièrement en cas de discussion d’assistance – pour codifier la sévérité de l’insuffisance cardiaque avant transplantation cardiaque ( tableau 1).
 Rôle de l’Agence de la biomédecine et donneurs:
-L'Agence de biomédecine, créée par la loi de bioéthique de 2004, est un établissement public qui dans le domaine de la greffe cardiaque et qui gère la liste nationale des personnes en attente, l'attribution des greffons, la régulation des prélèvements, l'élaboration, en collaboration avec des professionnels, des règles de répartition des greffons et l'évaluation de l'activité et des résultats des équipes dans le domaine de la greffe cardiaque. Les agences régionales de santé reçoivent des autorisations d'activité de greffe après avis de l'Agence de biomédecine. Les différences dans le nombre de donneurs, de candidats et de centres de greffe autorisés expliquent les différences dans l'activité et l'accès à la transplantation entre les régions.[3]
-la transplantation pulmonaire: est actuellement reconnue comme un traitement efficace pour un certain nombre de maladies respiratoires sévère. Selon l’indication il y a trois types de transplantation pulmonaire peuvent être proposés : la greffe uni pulmonaire, la greffe bipulmonaire et la greffe cardiopulmonaire.[4]
-transplantation intestinale : La transplantation est proposée aux patients atteints d'insuffisance intestinale irréversible qui présentent l'un des trois problèmes suivants : des complications liées à la nutrition parentérale, une incapacité à s'adapter aux limitations de qualité de vie posées par une insuffisance intestinale ou un risque élevé de décès si l'intestin natif n'est pas retiré (comme dans le cas de tumeurs mésentériques non résécables ou d'obstruction intestinale chronique).[5]
-État pathologique de la transplantation intestinale
-Les transplantations intestinales sont réalisées chez les enfants et les adultes ( Tableau 2)  La majorité des enfants qui ont besoin d'une greffe souffrent du syndrome de l'intestin court, généralement après résection chirurgicale ; une plus petite proportion souffre de troubles congénitaux des entérocytes qui provoquent des diarrhées infantiles, des troubles de la motilité ou une malabsorption due à une polypose. La plupart des adultes candidats à la transplantation souffrent également du syndrome de l'intestin court et, dans la majorité des cas, la cause est la maladie de Crohn, des accidents vasculaires mésentériques, un traumatisme, un volvulus ou des complications chirurgicales. Les complications de la chirurgie de l'obésité sont de plus en plus fréquentes. Parfois, la seule option de traitement pour les tumeurs mésentériques bénignes localement avancées est l’exentération et la transplantation intestinale. Les greffes multiviscérales ont également été utilisées pour traiter les complications de l'hypertension portale lorsque la thrombose veineuse splanchnique exclut la transplantation hépatique seule.[6]
+L'Agence de biomédecine, créée par la loi de bioéthique de 2004, est un établissement public qui dans le domaine de la greffe cardiaque et qui gère la liste nationale des personnes en attente, l'attribution des greffons, la régulation des prélèvements, l'élaboration, en collaboration avec des professionnels, des règles de répartition des greffons et l'évaluation de l'activité et des résultats des équipes dans le domaine de la greffe cardiaque. Les agences régionales de santé reçoivent des autorisations d'activité de greffe après avis de l'Agence de biomédecine. Les différences dans le nombre de donneurs, de candidats et de centres de greffe autorisés expliquent les différences dans l'activité et l'accès à la transplantation entre les régions.
+la transplantation pulmonaire: est actuellement reconnue comme un traitement efficace pour un certain nombre de maladies respiratoires sévère. Selon l’indication il y a trois types de transplantation pulmonaire peuvent être proposés : la greffe uni pulmonaire, la greffe bipulmonaire et la greffe cardiopulmonaire.
+transplantation intestinale : La transplantation est proposée aux patients atteints d'insuffisance intestinale irréversible qui présentent l'un des trois problèmes suivants : des complications liées à la nutrition parentérale, une incapacité à s'adapter aux limitations de qualité de vie posées par une insuffisance intestinale ou un risque élevé de décès si l'intestin natif n'est pas retiré (comme dans le cas de tumeurs mésentériques non résécables ou d'obstruction intestinale chronique).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organes transplantés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>État pathologique de la transplantation intestinale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les transplantations intestinales sont réalisées chez les enfants et les adultes ( Tableau 2)  La majorité des enfants qui ont besoin d'une greffe souffrent du syndrome de l'intestin court, généralement après résection chirurgicale ; une plus petite proportion souffre de troubles congénitaux des entérocytes qui provoquent des diarrhées infantiles, des troubles de la motilité ou une malabsorption due à une polypose. La plupart des adultes candidats à la transplantation souffrent également du syndrome de l'intestin court et, dans la majorité des cas, la cause est la maladie de Crohn, des accidents vasculaires mésentériques, un traumatisme, un volvulus ou des complications chirurgicales. Les complications de la chirurgie de l'obésité sont de plus en plus fréquentes. Parfois, la seule option de traitement pour les tumeurs mésentériques bénignes localement avancées est l’exentération et la transplantation intestinale. Les greffes multiviscérales ont également été utilisées pour traiter les complications de l'hypertension portale lorsque la thrombose veineuse splanchnique exclut la transplantation hépatique seule.
 https://www.nejm.org/na101/home/literatum/publisher/mms/journals/content/nejm/2009/nejm_2009.361.issue-10/nejmra0804605/production/images/img_medium/nejmra0804605_t2.jpeg
 Il doit exister une certaine compatibilité immunologique entre le receveur et l'organe transplanté afin de diminuer le risque de rejet (réaction du système immunitaire du receveur contre l'organe transplanté ou greffé pouvant conduire à la destruction de ce dernier). Au minimum, une compatibilité au niveau du groupe sanguin est requise. La meilleure adéquation possible, quant au groupe HLA, reste souhaitable, même si elle est moins impérative.
 La transfusion sanguine n'est pas considérée comme une greffe car elle ne pose pas les mêmes problèmes : le sang du donneur n'exige qu'une compatibilité de groupe sanguin et aucun traitement immunosuppresseur n'est requis, les éléments sanguins transfusés n'étant là que pour permettre au patient de passer un cap et étant progressivement remplacés par ceux de ce dernier.
@@ -632,34 +719,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prélèvement d'organe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir d'un donneur en état de mort encéphalique
-C'est un état très différent du coma, puisque le cerveau est définitivement détruit.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À partir d'un donneur en état de mort encéphalique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un état très différent du coma, puisque le cerveau est définitivement détruit.
 La mort encéphalique, définie comme la « destruction du tronc cérébral associée à celle des hémisphères du cerveau », est un état très rare (environ 3 000 identifiés en France sur environ 500 000 décès).
 Son diagnostic doit être effectué par deux médecins non impliqués dans une quelconque activité de transplantation et est encadré par la loi. La mort encéphalique est déclarée après examen clinique constatant :
 l'absence de conscience ;
@@ -667,130 +759,283 @@
 l'absence de ventilation spontanée ;
 la destruction totale et définitive du cerveau, confirmée par deux encéphalogrammes et une artériographie cérébrale. Les mêmes mesures sont réalisées dans un intervalle de temps (en général 30 minutes) pour éviter toute erreur. L'utilisation de 2 encéphalogrammes distinct ayant les mêmes tracés est requise.
 Cela permet de s'assurer au sens clinique de l'état de décès du patient. À cela s'ajoute un examen paraclinique permettant de s'assurer de l'irréversibilité de la mort encéphalique.
-À partir d'un donneur vivant
-Une personne en bonne santé a la possibilité de donner un organe de son vivant. C’est le cas par exemple du rein, d’une partie du foie ou très rarement d'un lobe pulmonaire. On peut en effet vivre en bonne santé avec un seul rein, une partie du foie (car c’est un organe qui se régénère rapidement) ou une partie d'un poumon.
-Ce don n’est possible que si le donneur est majeur et proche du receveur. En France, la loi de bioéthique encadre les conditions dans lesquelles une personne peut donner un organe de son vivant. Depuis la révision de la loi de bioéthique du 7 juillet 2011, ce don est possible pour « toute personne ayant une relation étroite et stable depuis au moins deux ans avec le receveur »[29]. Cet élargissement du cercle des donneurs vivants est applicable depuis le 8 juillet 2011, date de publication de la loi au Journal Officiel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prélèvement d'organe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À partir d'un donneur vivant</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une personne en bonne santé a la possibilité de donner un organe de son vivant. C’est le cas par exemple du rein, d’une partie du foie ou très rarement d'un lobe pulmonaire. On peut en effet vivre en bonne santé avec un seul rein, une partie du foie (car c’est un organe qui se régénère rapidement) ou une partie d'un poumon.
+Ce don n’est possible que si le donneur est majeur et proche du receveur. En France, la loi de bioéthique encadre les conditions dans lesquelles une personne peut donner un organe de son vivant. Depuis la révision de la loi de bioéthique du 7 juillet 2011, ce don est possible pour « toute personne ayant une relation étroite et stable depuis au moins deux ans avec le receveur ». Cet élargissement du cercle des donneurs vivants est applicable depuis le 8 juillet 2011, date de publication de la loi au Journal Officiel.
 Par ailleurs, la publication d'un décret d'application a rendu possible en 2012 la réalisation de dons croisés. Il s'agit d'une autre nouveauté de la loi de bioéthique : en cas d'incompatibilité entre la personne ayant exprimé l'intention de don et la personne dans l'intérêt de laquelle le prélèvement peut être opéré en vertu des premier ou deuxième alinéas, rendant impossible la greffe, le donneur et le receveur potentiels peuvent se voir proposer le recours à un don croisé d'organes. Celui-ci consiste pour le receveur potentiel à bénéficier du don d'une autre personne ayant exprimé l'intention de don et également placée dans une situation d'incompatibilité à l'égard de la personne dans l'intérêt de laquelle le prélèvement peut être opéré, tandis que cette dernière bénéficie du don du premier donneur.
 Les transplantations issues de donneur vivant les plus fréquentes concernent le rein, le risque pour le donneur étant extrêmement faible. Elles présentent en outre plusieurs avantages pour le receveur : elles fonctionnent mieux et plus longtemps que les greffes de rein à partir de donneur décédé. En outre, elles permettent de raccourcir ou de supprimer la période difficile d’attente en dialyse, ce qui comporte des avantages considérables sur les plans familiaux, personnels et professionnels. En raison de leurs avantages mais aussi de l'importance de la pénurie de greffons provenant de donneurs décédés, les greffes rénales à partir de donneurs vivants devraient être amenées à se développer en France dans les années qui viennent. Pour le foie et le poumon, les risques pour le donneur sont beaucoup plus importants et ces greffes sont de moins en moins pratiquées en France, hormis en pédiatrie pour le foie.
-Sur donneur décédé après arrêt cardiaque
-Sous certaines conditions bien précises (contraintes temporelles notamment) les organes (rein, foie, poumons) de personnes en arrêt cardiaque et respiratoire définitif peuvent être prélevés. On sait aujourd’hui que les résultats des greffes de ces organes sont aussi bons que ceux provenant de donneurs en mort encéphalique. Des programmes de ce type ont démarré en France fin 2006. On estime qu'ils pourraient conduire à augmenter d'environ 30 % le nombre de greffons disponibles.
-Selon le protocole français, anglais et espagnol, le diagnostic d’arrêt circulatoire persistant est évoqué devant la constatation de l’absence d’une reprise d’activité cardiaque au bout de 30 minutes de réanimation médicalisée bien conduite, réalisée sur les lieux de l’intervention. Devant cet échec de la réanimation médicale, le transfert du patient est alors envisagé vers un centre hospitalier et les manœuvres thérapeutiques (ventilation mécanique, massage cardiaque continu) sont poursuivies. Le constat de décès, comportant la constatation d’un arrêt cardiaque irréversible pendant 5 minutes après l’arrêt des manœuvres de réanimation, est effectué en milieu intrahospitalier et l'éventualité d'un prélèvement peut être envisagée[30]. Le prélèvement est alors effectué idéalement le plus tôt possible (le temps entre la constatation du décès et la mise en conditionnement du greffon pour le transport ne devant pas excéder la demi-heure pour le foie, dans l'heure pour les reins)[31].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prélèvement d'organe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sur donneur décédé après arrêt cardiaque</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous certaines conditions bien précises (contraintes temporelles notamment) les organes (rein, foie, poumons) de personnes en arrêt cardiaque et respiratoire définitif peuvent être prélevés. On sait aujourd’hui que les résultats des greffes de ces organes sont aussi bons que ceux provenant de donneurs en mort encéphalique. Des programmes de ce type ont démarré en France fin 2006. On estime qu'ils pourraient conduire à augmenter d'environ 30 % le nombre de greffons disponibles.
+Selon le protocole français, anglais et espagnol, le diagnostic d’arrêt circulatoire persistant est évoqué devant la constatation de l’absence d’une reprise d’activité cardiaque au bout de 30 minutes de réanimation médicalisée bien conduite, réalisée sur les lieux de l’intervention. Devant cet échec de la réanimation médicale, le transfert du patient est alors envisagé vers un centre hospitalier et les manœuvres thérapeutiques (ventilation mécanique, massage cardiaque continu) sont poursuivies. Le constat de décès, comportant la constatation d’un arrêt cardiaque irréversible pendant 5 minutes après l’arrêt des manœuvres de réanimation, est effectué en milieu intrahospitalier et l'éventualité d'un prélèvement peut être envisagée. Le prélèvement est alors effectué idéalement le plus tôt possible (le temps entre la constatation du décès et la mise en conditionnement du greffon pour le transport ne devant pas excéder la demi-heure pour le foie, dans l'heure pour les reins).
 Le donneur peut être également décédé depuis quelques heures, auquel cas, des prélèvements de tissus en chambre mortuaire sont possibles.
-La vente d'organes
-La vente d'organes est strictement interdite en France, elle est considérée comme un délit et est punie par la loi : tout contrevenant risque sept ans de prison et 100 000 € d'amende. Le don et la greffe d'organes sont en France l'activité médicale la plus réglementée, dont l'organisation est encadrée par l'agence de la biomédecine.
-Sur le plan international, bien que posant un problème d'éthique et de sécurité sanitaire, c'est une pratique qui se développe : près de 5 % des transplantations seraient faites sur cette base[32] (achat d'un organe d'un « donneur », essentiellement issu d'un pays pauvre). Près de 10 % des transplantations de rein au niveau mondial se feraient également par ce biais[33].
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prélèvement d'organe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sur donneur décédé après arrêt cardiaque</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>La vente d'organes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vente d'organes est strictement interdite en France, elle est considérée comme un délit et est punie par la loi : tout contrevenant risque sept ans de prison et 100 000 € d'amende. Le don et la greffe d'organes sont en France l'activité médicale la plus réglementée, dont l'organisation est encadrée par l'agence de la biomédecine.
+Sur le plan international, bien que posant un problème d'éthique et de sécurité sanitaire, c'est une pratique qui se développe : près de 5 % des transplantations seraient faites sur cette base (achat d'un organe d'un « donneur », essentiellement issu d'un pays pauvre). Près de 10 % des transplantations de rein au niveau mondial se feraient également par ce biais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Bilan des greffes complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France
-Le rapport d’activité 2008 de l’Agence de la Biomédecine permet de prendre la mesure de la situation de pénurie d’organes en France.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rapport d’activité 2008 de l’Agence de la Biomédecine permet de prendre la mesure de la situation de pénurie d’organes en France.
 En 2017, 23 828 patients ont été en attente d’une greffe d’organe. Parmi eux, 18 793 attendaient un rein. 6 105 d’entre eux ont pu être greffés à partir de 1 796 personnes décédées et donneurs vivants, soit 25,6 % des patients. En ce qui concerne le rein, 3 782 greffes ont été réalisées, ce sont donc seulement 20,1 % des patients en attente qui ont pu être transplantés. Les greffes de reins provenant de donneurs vivants ne représentaient que 16,15 % du total (611 patients). Cette proportion reste très faible en comparaison de celle de beaucoup de nos voisins européens, comme le Royaume-Uni (800).
-L'Agence de la biomédecine a rendu publics les chiffres de 2017 : 6 105 personnes ont bénéficié d'une greffe, ce qui correspond à 214 personnes de plus qu'en 2016. L'étude a également précisé qu'en 2017, plus de 57 000 personnes sont porteuses d'un greffon fonctionnel[34].
+L'Agence de la biomédecine a rendu publics les chiffres de 2017 : 6 105 personnes ont bénéficié d'une greffe, ce qui correspond à 214 personnes de plus qu'en 2016. L'étude a également précisé qu'en 2017, plus de 57 000 personnes sont porteuses d'un greffon fonctionnel.
 Aussi, d'après l'Agence de la Biomédecine, sur les 24 147 personnes ayant bénéficié d'une greffe entre 1993 et 2005 :
 90,4 % étaient en vie un an après leur opération, et ;
-62,5 % étaient en vie dix ans après leur opération[35].
+62,5 % étaient en vie dix ans après leur opération.
 Plus de 200 malades décèdent, chaque année, faute de greffon. Il convient de souligner que ces décès recensés ne reflètent pas totalement la réalité. En effet, les patients dont l’état de santé se dégrade en raison d’une trop longue attente sont en général désinscrits de la liste lorsque leurs médecins estiment qu’ils ne sont plus en état de recevoir une greffe. Les morts liés à la pénurie sont donc vraisemblablement sensiblement plus nombreux.
 Par ailleurs, alors que 46 872 malades étaient dialysés en France au 31 décembre 2016, 17 810 étaient inscrits en liste d’attente de greffe rénale, alors même que l’on sait que les contre-indications à la transplantation rénale sont devenues marginales, y compris pour les patients les plus âgés. Il existe donc des difficultés profondes d’accès à la liste d’attente (par exemple, 41 % des patients de moins de 60 ans ne sont toujours pas inscrits sur la liste d’attente 12 mois après le démarrage de la dialyse), qui se traduisent par une sous-estimation vraisemblablement très importante des besoins de la population en termes de transplantation rénale.
 La source de don d’organes que représente la mort encéphalique est très limitée. Ainsi, il a été récemment montré que le nombre maximal de donneurs potentiels de ce type était environ de 4 000 chaque année, alors qu’il en faudrait 11 000 pour répondre aux besoins. 3 539 donneurs potentiels en EME (état de mort encéphalique) ont été recensés en France en 2017. On constate donc que l’on est désormais très proche du niveau optimal. Cela implique que si l’amélioration du recensement et la diminution du taux de refus des proches doivent demeurer des priorités, elles ne seront quoi qu’il en soit pas suffisantes pour répondre de manière satisfaisante aux besoins des patients en attente de greffe. Le recours à d’autres sources de prélèvement (donneurs décédés à la suite d'un arrêt cardiaque, donneurs vivants) apparaît désormais comme un impératif.
-Dans les autres pays
-En 2016, en Grande-Bretagne, 4 692 transplantations ont été faites alors que la liste d'attente comportait près du double de patients (9788)[36].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bilan des greffes complications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dans les autres pays</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, en Grande-Bretagne, 4 692 transplantations ont été faites alors que la liste d'attente comportait près du double de patients (9788).
 Compte tenu de ses avantages, la transplantation de rein à partir d'un donneur vivant progresse depuis quelques années. La France reste en retrait par rapport à d'autres pays (Norvège, États-Unis, etc.). Compte tenu des faibles risques encourus par les donneurs, les questions éthiques qu'elle soulève sont moins aiguës que pour le foie ou le poumon.
 La recherche se tourne vers la xénogreffe, notamment à partir du cochon. L'objectif est de modifier les gènes de l'animal afin que ses organes ne soient pas rejetés immédiatement, mais d'autres risques sont afférents, notamment de transmission de virus de l'animal à l'homme.
 Les résultats du graphique prouvent que les choix de société et le volontarisme politique peuvent avoir un grand impact sur le nombre de greffes réalisées dans un pays.
 Les résultats des greffes s'améliorent régulièrement, c'est aujourd'hui une technique fiable et validée. Certains greffés le sont maintenant depuis près de 40 ans, ce qui leur a permis de vivre pratiquement l'intégralité d'une vie. Michel Raymond Corniglion est le plus ancien greffé cardiaque au monde (greffé depuis 1981), et Edith Helm, a longtemps été la plus ancienne greffée du rein (greffée en 1956, elle est décédée en 2011 à l'âge de 76 ans).
-D'autres pays comme la Chine ne peut pas assurer une traçabilité correcte de ces transplantations[37].
+D'autres pays comme la Chine ne peut pas assurer une traçabilité correcte de ces transplantations.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Risques des greffes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le risque de l'intervention est majoré du fait de la fragilité du patient receveur.
 Le principal risque est celui du rejet de greffe : il peut être aigu ou chronique et se traduire par la perte rapide et irréversible du greffon ou une lente dégradation de la fonction de ce dernier. Ce risque est diminué par le traitement antirejet et la surveillance régulière, permettant de détecter les signes avant-coureurs d'un rejet débutant et sa prise en charge.
-À moyen et à long terme, du fait des traitements immunosuppresseurs requis, il existe une majoration du risque d'infections et de cancers (en premier lieu les lymphomes non hodgkiniens)[38].
+À moyen et à long terme, du fait des traitements immunosuppresseurs requis, il existe une majoration du risque d'infections et de cancers (en premier lieu les lymphomes non hodgkiniens).
 Certains produits à haute teneur en caféine sont contre indiqué même après la greffe[réf. nécessaire].
 La greffe d'organe  est une procédure médicale complexe qui peut être associée à diverses complications notamment : 
-Les principales complications sont les complications liées à la procédure, l'infection, le rejet aigu, la vasculopathie de l'allogreffe cardiaque et les tumeurs malignes[39].
-Des complications non vasculaires et vasculaires peuvent survenir dans la phase initiale après la transplantation et à des stades ultérieurs. Les complications postopératoires globales après les transplantations rénales surviennent chez environ 12 % à 25 % des patients ayant subi une transplantation rénale[40].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Les principales complications sont les complications liées à la procédure, l'infection, le rejet aigu, la vasculopathie de l'allogreffe cardiaque et les tumeurs malignes.
+Des complications non vasculaires et vasculaires peuvent survenir dans la phase initiale après la transplantation et à des stades ultérieurs. Les complications postopératoires globales après les transplantations rénales surviennent chez environ 12 % à 25 % des patients ayant subi une transplantation rénale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2017, en France, selon l'Agence de la BioMédecine :
 23 828 patients ont eu besoin d'une greffe ;
@@ -810,31 +1055,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Greffés célèbres</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jonah Lomu
 Marius Renard
@@ -851,71 +1098,75 @@
 Michel Raymond Corniglion
 Mouss Diouf
 Edith Helm
-Steve Jobs a bénéficié d'une transplantation hépatique (greffe du foie)[41]
+Steve Jobs a bénéficié d'une transplantation hépatique (greffe du foie)
 Éric Abidal
 Louis Washkansky</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Greffe médicale dans la fiction</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mary Shelley, Frankenstein ou le Prométhée moderne (1818)
 Hubert Haddad, Corps désirable (2015)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Greffe_(médecine)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greffe_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Records</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sylvain Bédard greffé du cœur en 2000, atteint une altitude de 6 120 mètres le 2 décembre 2004[42].
-Paul Baudry greffé du cœur en 2009, atteint une altitude de 6 136 mètres le 12 juillet 2013[43],[44].</t>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sylvain Bédard greffé du cœur en 2000, atteint une altitude de 6 120 mètres le 2 décembre 2004.
+Paul Baudry greffé du cœur en 2009, atteint une altitude de 6 136 mètres le 12 juillet 2013,.</t>
         </is>
       </c>
     </row>
